--- a/youna/pre_route.xlsx
+++ b/youna/pre_route.xlsx
@@ -536,8 +536,10 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
-        <v>2018</v>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -600,8 +602,10 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="n">
-        <v>2018</v>
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -664,8 +668,10 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="n">
-        <v>2018</v>
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -728,8 +734,10 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="n">
-        <v>2018</v>
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -792,8 +800,10 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="n">
-        <v>2018</v>
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -856,8 +866,10 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="n">
-        <v>2018</v>
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -920,8 +932,10 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="n">
-        <v>2018</v>
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -982,8 +996,10 @@
       <c r="T8" t="inlineStr"/>
     </row>
     <row r="9">
-      <c r="A9" t="n">
-        <v>2018</v>
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -1046,8 +1062,10 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="n">
-        <v>2018</v>
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -1088,8 +1106,10 @@
       <c r="T10" t="inlineStr"/>
     </row>
     <row r="11">
-      <c r="A11" t="n">
-        <v>2019</v>
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -1150,8 +1170,10 @@
       <c r="T11" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" t="n">
-        <v>2019</v>
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -1212,8 +1234,10 @@
       <c r="T12" t="inlineStr"/>
     </row>
     <row r="13">
-      <c r="A13" t="n">
-        <v>2019</v>
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -1274,8 +1298,10 @@
       <c r="T13" t="inlineStr"/>
     </row>
     <row r="14">
-      <c r="A14" t="n">
-        <v>2019</v>
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -1336,8 +1362,10 @@
       <c r="T14" t="inlineStr"/>
     </row>
     <row r="15">
-      <c r="A15" t="n">
-        <v>2019</v>
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -1398,8 +1426,10 @@
       <c r="T15" t="inlineStr"/>
     </row>
     <row r="16">
-      <c r="A16" t="n">
-        <v>2019</v>
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -1460,8 +1490,10 @@
       <c r="T16" t="inlineStr"/>
     </row>
     <row r="17">
-      <c r="A17" t="n">
-        <v>2019</v>
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -1522,8 +1554,10 @@
       <c r="T17" t="inlineStr"/>
     </row>
     <row r="18">
-      <c r="A18" t="n">
-        <v>2019</v>
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -1584,8 +1618,10 @@
       <c r="T18" t="inlineStr"/>
     </row>
     <row r="19">
-      <c r="A19" t="n">
-        <v>2019</v>
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -1646,8 +1682,10 @@
       <c r="T19" t="inlineStr"/>
     </row>
     <row r="20">
-      <c r="A20" t="n">
-        <v>2020</v>
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -1708,8 +1746,10 @@
       <c r="T20" t="inlineStr"/>
     </row>
     <row r="21">
-      <c r="A21" t="n">
-        <v>2020</v>
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -1770,8 +1810,10 @@
       <c r="T21" t="inlineStr"/>
     </row>
     <row r="22">
-      <c r="A22" t="n">
-        <v>2020</v>
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -1832,8 +1874,10 @@
       <c r="T22" t="inlineStr"/>
     </row>
     <row r="23">
-      <c r="A23" t="n">
-        <v>2020</v>
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -1894,8 +1938,10 @@
       <c r="T23" t="inlineStr"/>
     </row>
     <row r="24">
-      <c r="A24" t="n">
-        <v>2020</v>
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -1956,8 +2002,10 @@
       <c r="T24" t="inlineStr"/>
     </row>
     <row r="25">
-      <c r="A25" t="n">
-        <v>2020</v>
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -2012,8 +2060,10 @@
       <c r="T25" t="inlineStr"/>
     </row>
     <row r="26">
-      <c r="A26" t="n">
-        <v>2020</v>
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
@@ -2072,8 +2122,10 @@
       <c r="T26" t="inlineStr"/>
     </row>
     <row r="27">
-      <c r="A27" t="n">
-        <v>2020</v>
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
@@ -2134,8 +2186,10 @@
       <c r="T27" t="inlineStr"/>
     </row>
     <row r="28">
-      <c r="A28" t="n">
-        <v>2020</v>
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
@@ -2192,8 +2246,10 @@
       <c r="T28" t="inlineStr"/>
     </row>
     <row r="29">
-      <c r="A29" t="n">
-        <v>2021</v>
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
@@ -2254,8 +2310,10 @@
       <c r="T29" t="inlineStr"/>
     </row>
     <row r="30">
-      <c r="A30" t="n">
-        <v>2021</v>
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
@@ -2316,8 +2374,10 @@
       <c r="T30" t="inlineStr"/>
     </row>
     <row r="31">
-      <c r="A31" t="n">
-        <v>2021</v>
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
@@ -2378,8 +2438,10 @@
       <c r="T31" t="inlineStr"/>
     </row>
     <row r="32">
-      <c r="A32" t="n">
-        <v>2021</v>
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
@@ -2440,8 +2502,10 @@
       <c r="T32" t="inlineStr"/>
     </row>
     <row r="33">
-      <c r="A33" t="n">
-        <v>2021</v>
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
@@ -2502,8 +2566,10 @@
       <c r="T33" t="inlineStr"/>
     </row>
     <row r="34">
-      <c r="A34" t="n">
-        <v>2021</v>
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
@@ -2564,8 +2630,10 @@
       <c r="T34" t="inlineStr"/>
     </row>
     <row r="35">
-      <c r="A35" t="n">
-        <v>2021</v>
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
@@ -2624,8 +2692,10 @@
       <c r="T35" t="inlineStr"/>
     </row>
     <row r="36">
-      <c r="A36" t="n">
-        <v>2021</v>
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
@@ -2686,8 +2756,10 @@
       <c r="T36" t="inlineStr"/>
     </row>
     <row r="37">
-      <c r="A37" t="n">
-        <v>2021</v>
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
@@ -2728,8 +2800,10 @@
       <c r="T37" t="inlineStr"/>
     </row>
     <row r="38">
-      <c r="A38" t="n">
-        <v>2022</v>
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
@@ -2790,8 +2864,10 @@
       <c r="T38" t="inlineStr"/>
     </row>
     <row r="39">
-      <c r="A39" t="n">
-        <v>2022</v>
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
@@ -2852,8 +2928,10 @@
       <c r="T39" t="inlineStr"/>
     </row>
     <row r="40">
-      <c r="A40" t="n">
-        <v>2022</v>
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
@@ -2914,8 +2992,10 @@
       <c r="T40" t="inlineStr"/>
     </row>
     <row r="41">
-      <c r="A41" t="n">
-        <v>2022</v>
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
@@ -2976,8 +3056,10 @@
       <c r="T41" t="inlineStr"/>
     </row>
     <row r="42">
-      <c r="A42" t="n">
-        <v>2022</v>
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
@@ -3038,8 +3120,10 @@
       <c r="T42" t="inlineStr"/>
     </row>
     <row r="43">
-      <c r="A43" t="n">
-        <v>2022</v>
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
@@ -3100,8 +3184,10 @@
       <c r="T43" t="inlineStr"/>
     </row>
     <row r="44">
-      <c r="A44" t="n">
-        <v>2022</v>
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
@@ -3162,8 +3248,10 @@
       <c r="T44" t="inlineStr"/>
     </row>
     <row r="45">
-      <c r="A45" t="n">
-        <v>2022</v>
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
